--- a/답안_예시.xlsx
+++ b/답안_예시.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet sheetId="1" name="시트1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="채점결과시트" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>반</t>
   </si>
@@ -68,23 +69,27 @@
   </si>
   <si>
     <t>변정섭</t>
+  </si>
+  <si>
+    <t>점수</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
+      <scheme val="minor"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,32 +97,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -315,16 +329,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.63" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -341,7 +356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -349,7 +364,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -358,7 +373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -366,7 +381,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -375,7 +390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -383,7 +398,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -392,7 +407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -400,7 +415,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -409,7 +424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -417,7 +432,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -426,7 +441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -434,7 +449,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -444,6 +459,135 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>